--- a/Data/Rentals/Maple_rentals.xlsx
+++ b/Data/Rentals/Maple_rentals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/levan/Documents/MegaValuationer/Data/Rentals/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4E07C6-486E-4C41-B33D-9E4B84ED01F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7BB36D9-01C5-A54D-B84F-0CBE35E44C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" xr2:uid="{BE05F455-A99B-BB46-AA6E-FD3E41BAAE71}"/>
   </bookViews>
@@ -3768,9 +3768,6 @@
     <t>Community/Building</t>
   </si>
   <si>
-    <t>Sub Community / Building</t>
-  </si>
-  <si>
     <t>Beds</t>
   </si>
   <si>
@@ -4309,6 +4306,9 @@
   </si>
   <si>
     <t> 08 Jul 2025 / 07 Jul 2026</t>
+  </si>
+  <si>
+    <t>Sub Community/Building</t>
   </si>
 </sst>
 </file>
@@ -4684,7 +4684,7 @@
   <dimension ref="A1:O1152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4719,42 +4719,42 @@
         <v>1241</v>
       </c>
       <c r="E1" t="s">
+        <v>1422</v>
+      </c>
+      <c r="F1" t="s">
         <v>1242</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>1243</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>1244</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>1245</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>1246</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>1247</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>1248</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>1249</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>1250</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>1251</v>
-      </c>
-      <c r="O1" t="s">
-        <v>1252</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -4793,7 +4793,7 @@
         <v>6</v>
       </c>
       <c r="N2" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="O2" t="s">
         <v>11</v>
@@ -4801,7 +4801,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -4848,7 +4848,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
@@ -4887,7 +4887,7 @@
         <v>6</v>
       </c>
       <c r="N4" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="O4" t="s">
         <v>11</v>
@@ -4895,7 +4895,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
@@ -4942,7 +4942,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
@@ -4989,7 +4989,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
@@ -5028,7 +5028,7 @@
         <v>6</v>
       </c>
       <c r="N7" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="O7" t="s">
         <v>11</v>
@@ -5036,7 +5036,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
@@ -5083,7 +5083,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
@@ -5122,7 +5122,7 @@
         <v>6</v>
       </c>
       <c r="N9" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="O9" t="s">
         <v>11</v>
@@ -5130,7 +5130,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="B10" t="s">
         <v>0</v>
@@ -5177,7 +5177,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
@@ -5216,7 +5216,7 @@
         <v>6</v>
       </c>
       <c r="N11" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="O11" t="s">
         <v>11</v>
@@ -5224,7 +5224,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="B12" t="s">
         <v>0</v>
@@ -5263,7 +5263,7 @@
         <v>6</v>
       </c>
       <c r="N12" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="O12" t="s">
         <v>11</v>
@@ -5271,7 +5271,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="B13" t="s">
         <v>0</v>
@@ -5310,7 +5310,7 @@
         <v>6</v>
       </c>
       <c r="N13" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="O13" t="s">
         <v>11</v>
@@ -5318,7 +5318,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="B14" t="s">
         <v>0</v>
@@ -5365,7 +5365,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="B15" t="s">
         <v>0</v>
@@ -5412,7 +5412,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="B16" t="s">
         <v>0</v>
@@ -5459,7 +5459,7 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="B17" t="s">
         <v>0</v>
@@ -5498,7 +5498,7 @@
         <v>6</v>
       </c>
       <c r="N17" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="O17" t="s">
         <v>11</v>
@@ -5506,7 +5506,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="B18" t="s">
         <v>0</v>
@@ -5545,7 +5545,7 @@
         <v>6</v>
       </c>
       <c r="N18" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="O18" t="s">
         <v>11</v>
@@ -5553,7 +5553,7 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="B19" t="s">
         <v>0</v>
@@ -5592,7 +5592,7 @@
         <v>6</v>
       </c>
       <c r="N19" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="O19" t="s">
         <v>11</v>
@@ -5600,7 +5600,7 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="B20" t="s">
         <v>0</v>
@@ -5647,7 +5647,7 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B21" t="s">
         <v>0</v>
@@ -5694,7 +5694,7 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="B22" t="s">
         <v>0</v>
@@ -5733,7 +5733,7 @@
         <v>6</v>
       </c>
       <c r="N22" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="O22" t="s">
         <v>11</v>
@@ -5741,7 +5741,7 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="B23" t="s">
         <v>0</v>
@@ -5780,7 +5780,7 @@
         <v>6</v>
       </c>
       <c r="N23" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="O23" t="s">
         <v>11</v>
@@ -5788,7 +5788,7 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="B24" t="s">
         <v>0</v>
@@ -5824,7 +5824,7 @@
         <v>5</v>
       </c>
       <c r="M24" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="N24" t="s">
         <v>1214</v>
@@ -5835,7 +5835,7 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="B25" t="s">
         <v>0</v>
@@ -5882,7 +5882,7 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="B26" t="s">
         <v>0</v>
@@ -5929,7 +5929,7 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="B27" t="s">
         <v>0</v>
@@ -5968,7 +5968,7 @@
         <v>6</v>
       </c>
       <c r="N27" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="O27" t="s">
         <v>11</v>
@@ -5976,7 +5976,7 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="B28" t="s">
         <v>0</v>
@@ -6015,7 +6015,7 @@
         <v>6</v>
       </c>
       <c r="N28" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="O28" t="s">
         <v>11</v>
@@ -6023,7 +6023,7 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="B29" t="s">
         <v>0</v>
@@ -6070,7 +6070,7 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="B30" t="s">
         <v>0</v>
@@ -6117,7 +6117,7 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="B31" t="s">
         <v>0</v>
@@ -6156,7 +6156,7 @@
         <v>6</v>
       </c>
       <c r="N31" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="O31" t="s">
         <v>11</v>
@@ -6164,7 +6164,7 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="B32" t="s">
         <v>0</v>
@@ -6203,7 +6203,7 @@
         <v>6</v>
       </c>
       <c r="N32" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="O32" t="s">
         <v>11</v>
@@ -6211,7 +6211,7 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="B33" t="s">
         <v>0</v>
@@ -6258,7 +6258,7 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="B34" t="s">
         <v>0</v>
@@ -6297,7 +6297,7 @@
         <v>6</v>
       </c>
       <c r="N34" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="O34" t="s">
         <v>11</v>
@@ -6305,7 +6305,7 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="B35" t="s">
         <v>0</v>
@@ -6352,7 +6352,7 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="B36" t="s">
         <v>0</v>
@@ -6391,7 +6391,7 @@
         <v>6</v>
       </c>
       <c r="N36" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="O36" t="s">
         <v>11</v>
@@ -6399,7 +6399,7 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="B37" t="s">
         <v>0</v>
@@ -6446,7 +6446,7 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="B38" t="s">
         <v>0</v>
@@ -6493,7 +6493,7 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="B39" t="s">
         <v>0</v>
@@ -6540,7 +6540,7 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="B40" t="s">
         <v>0</v>
@@ -6579,7 +6579,7 @@
         <v>6</v>
       </c>
       <c r="N40" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="O40" t="s">
         <v>11</v>
@@ -6587,7 +6587,7 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="B41" t="s">
         <v>0</v>
@@ -6634,7 +6634,7 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="B42" t="s">
         <v>0</v>
@@ -6673,7 +6673,7 @@
         <v>6</v>
       </c>
       <c r="N42" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="O42" t="s">
         <v>11</v>
@@ -6681,7 +6681,7 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="B43" t="s">
         <v>0</v>
@@ -6955,7 +6955,7 @@
         <v>6</v>
       </c>
       <c r="N48" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="O48" t="s">
         <v>11</v>
@@ -7046,7 +7046,7 @@
         <v>5</v>
       </c>
       <c r="M50" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="N50" t="s">
         <v>18</v>
@@ -7093,7 +7093,7 @@
         <v>5</v>
       </c>
       <c r="M51" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="N51" t="s">
         <v>20</v>
@@ -7151,7 +7151,7 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="B53" t="s">
         <v>0</v>
@@ -7190,7 +7190,7 @@
         <v>6</v>
       </c>
       <c r="N53" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="O53" t="s">
         <v>11</v>
@@ -7198,7 +7198,7 @@
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="B54" t="s">
         <v>0</v>
@@ -7234,10 +7234,10 @@
         <v>5</v>
       </c>
       <c r="M54" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="N54" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="O54" t="s">
         <v>8</v>
@@ -7942,7 +7942,7 @@
         <v>6</v>
       </c>
       <c r="N69" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="O69" t="s">
         <v>8</v>
@@ -7989,7 +7989,7 @@
         <v>6</v>
       </c>
       <c r="N70" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="O70" t="s">
         <v>8</v>
@@ -13073,7 +13073,7 @@
     </row>
     <row r="179" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="B179" t="s">
         <v>0</v>
@@ -13112,7 +13112,7 @@
         <v>6</v>
       </c>
       <c r="N179" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="O179" t="s">
         <v>11</v>
@@ -14898,7 +14898,7 @@
         <v>6</v>
       </c>
       <c r="N217" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="O217" t="s">
         <v>8</v>
@@ -24903,7 +24903,7 @@
         <v>5</v>
       </c>
       <c r="M430" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="N430" t="s">
         <v>567</v>
@@ -50816,7 +50816,7 @@
     </row>
     <row r="983" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A983" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="B983" t="s">
         <v>0</v>
@@ -50855,7 +50855,7 @@
         <v>6</v>
       </c>
       <c r="N983" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="O983" t="s">
         <v>11</v>
@@ -50863,7 +50863,7 @@
     </row>
     <row r="984" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A984" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="B984" t="s">
         <v>0</v>
@@ -50910,7 +50910,7 @@
     </row>
     <row r="985" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A985" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="B985" t="s">
         <v>0</v>
@@ -50957,7 +50957,7 @@
     </row>
     <row r="986" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A986" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="B986" t="s">
         <v>0</v>
@@ -50996,7 +50996,7 @@
         <v>6</v>
       </c>
       <c r="N986" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="O986" t="s">
         <v>11</v>
@@ -51004,7 +51004,7 @@
     </row>
     <row r="987" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A987" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="B987" t="s">
         <v>0</v>
@@ -51043,7 +51043,7 @@
         <v>6</v>
       </c>
       <c r="N987" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="O987" t="s">
         <v>11</v>
@@ -51051,7 +51051,7 @@
     </row>
     <row r="988" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A988" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="B988" t="s">
         <v>0</v>
@@ -51090,7 +51090,7 @@
         <v>6</v>
       </c>
       <c r="N988" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="O988" t="s">
         <v>11</v>
@@ -51098,7 +51098,7 @@
     </row>
     <row r="989" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A989" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="B989" t="s">
         <v>0</v>
@@ -51137,7 +51137,7 @@
         <v>6</v>
       </c>
       <c r="N989" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="O989" t="s">
         <v>11</v>
@@ -51145,7 +51145,7 @@
     </row>
     <row r="990" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A990" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="B990" t="s">
         <v>0</v>
@@ -51192,7 +51192,7 @@
     </row>
     <row r="991" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A991" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="B991" t="s">
         <v>0</v>
@@ -51231,7 +51231,7 @@
         <v>6</v>
       </c>
       <c r="N991" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="O991" t="s">
         <v>11</v>
@@ -51239,7 +51239,7 @@
     </row>
     <row r="992" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A992" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="B992" t="s">
         <v>0</v>
@@ -51278,7 +51278,7 @@
         <v>6</v>
       </c>
       <c r="N992" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="O992" t="s">
         <v>11</v>
@@ -51286,7 +51286,7 @@
     </row>
     <row r="993" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A993" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="B993" t="s">
         <v>0</v>
@@ -51325,7 +51325,7 @@
         <v>6</v>
       </c>
       <c r="N993" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="O993" t="s">
         <v>11</v>
@@ -51333,7 +51333,7 @@
     </row>
     <row r="994" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A994" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="B994" t="s">
         <v>0</v>
@@ -51372,7 +51372,7 @@
         <v>6</v>
       </c>
       <c r="N994" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="O994" t="s">
         <v>11</v>
@@ -51380,7 +51380,7 @@
     </row>
     <row r="995" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A995" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="B995" t="s">
         <v>0</v>
@@ -51419,7 +51419,7 @@
         <v>6</v>
       </c>
       <c r="N995" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="O995" t="s">
         <v>11</v>
@@ -51427,7 +51427,7 @@
     </row>
     <row r="996" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A996" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="B996" t="s">
         <v>66</v>
@@ -51474,7 +51474,7 @@
     </row>
     <row r="997" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A997" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="B997" t="s">
         <v>0</v>
@@ -51513,7 +51513,7 @@
         <v>6</v>
       </c>
       <c r="N997" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="O997" t="s">
         <v>8</v>
@@ -51521,7 +51521,7 @@
     </row>
     <row r="998" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A998" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="B998" t="s">
         <v>0</v>
@@ -51560,7 +51560,7 @@
         <v>6</v>
       </c>
       <c r="N998" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="O998" t="s">
         <v>11</v>
@@ -51568,7 +51568,7 @@
     </row>
     <row r="999" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A999" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="B999" t="s">
         <v>0</v>
@@ -51607,7 +51607,7 @@
         <v>6</v>
       </c>
       <c r="N999" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="O999" t="s">
         <v>11</v>
@@ -51615,7 +51615,7 @@
     </row>
     <row r="1000" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1000" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="B1000" t="s">
         <v>0</v>
@@ -51654,7 +51654,7 @@
         <v>6</v>
       </c>
       <c r="N1000" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="O1000" t="s">
         <v>8</v>
@@ -51662,7 +51662,7 @@
     </row>
     <row r="1001" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1001" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="B1001" t="s">
         <v>0</v>
@@ -51701,7 +51701,7 @@
         <v>6</v>
       </c>
       <c r="N1001" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="O1001" t="s">
         <v>11</v>
@@ -51709,7 +51709,7 @@
     </row>
     <row r="1002" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1002" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="B1002" t="s">
         <v>0</v>
@@ -51748,7 +51748,7 @@
         <v>6</v>
       </c>
       <c r="N1002" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="O1002" t="s">
         <v>8</v>
@@ -51756,7 +51756,7 @@
     </row>
     <row r="1003" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1003" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="B1003" t="s">
         <v>0</v>
@@ -51795,7 +51795,7 @@
         <v>6</v>
       </c>
       <c r="N1003" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="O1003" t="s">
         <v>8</v>
@@ -51803,7 +51803,7 @@
     </row>
     <row r="1004" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1004" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="B1004" t="s">
         <v>0</v>
@@ -51842,7 +51842,7 @@
         <v>6</v>
       </c>
       <c r="N1004" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="O1004" t="s">
         <v>8</v>
@@ -51850,7 +51850,7 @@
     </row>
     <row r="1005" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1005" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="B1005" t="s">
         <v>0</v>
@@ -51889,7 +51889,7 @@
         <v>6</v>
       </c>
       <c r="N1005" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="O1005" t="s">
         <v>11</v>
@@ -51897,7 +51897,7 @@
     </row>
     <row r="1006" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1006" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="B1006" t="s">
         <v>0</v>
@@ -51936,7 +51936,7 @@
         <v>6</v>
       </c>
       <c r="N1006" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="O1006" t="s">
         <v>8</v>
@@ -51944,7 +51944,7 @@
     </row>
     <row r="1007" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1007" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="B1007" t="s">
         <v>0</v>
@@ -51983,7 +51983,7 @@
         <v>6</v>
       </c>
       <c r="N1007" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="O1007" t="s">
         <v>8</v>
@@ -51991,7 +51991,7 @@
     </row>
     <row r="1008" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1008" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="B1008" t="s">
         <v>0</v>
@@ -52030,7 +52030,7 @@
         <v>6</v>
       </c>
       <c r="N1008" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="O1008" t="s">
         <v>8</v>
@@ -52038,7 +52038,7 @@
     </row>
     <row r="1009" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1009" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="B1009" t="s">
         <v>0</v>
@@ -52077,7 +52077,7 @@
         <v>6</v>
       </c>
       <c r="N1009" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="O1009" t="s">
         <v>8</v>
@@ -52085,7 +52085,7 @@
     </row>
     <row r="1010" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1010" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="B1010" t="s">
         <v>0</v>
@@ -52124,7 +52124,7 @@
         <v>6</v>
       </c>
       <c r="N1010" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="O1010" t="s">
         <v>8</v>
@@ -52132,7 +52132,7 @@
     </row>
     <row r="1011" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1011" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="B1011" t="s">
         <v>66</v>
@@ -52179,7 +52179,7 @@
     </row>
     <row r="1012" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1012" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="B1012" t="s">
         <v>66</v>
@@ -52226,7 +52226,7 @@
     </row>
     <row r="1013" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1013" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="B1013" t="s">
         <v>0</v>
@@ -52265,7 +52265,7 @@
         <v>6</v>
       </c>
       <c r="N1013" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="O1013" t="s">
         <v>11</v>
@@ -52273,7 +52273,7 @@
     </row>
     <row r="1014" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1014" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="B1014" t="s">
         <v>0</v>
@@ -52317,7 +52317,7 @@
     </row>
     <row r="1015" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1015" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="B1015" t="s">
         <v>0</v>
@@ -52356,7 +52356,7 @@
         <v>6</v>
       </c>
       <c r="N1015" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="O1015" t="s">
         <v>8</v>
@@ -52364,7 +52364,7 @@
     </row>
     <row r="1016" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1016" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="B1016" t="s">
         <v>0</v>
@@ -52411,7 +52411,7 @@
     </row>
     <row r="1017" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1017" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="B1017" t="s">
         <v>0</v>
@@ -52450,7 +52450,7 @@
         <v>6</v>
       </c>
       <c r="N1017" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="O1017" t="s">
         <v>8</v>
@@ -52458,7 +52458,7 @@
     </row>
     <row r="1018" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1018" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="B1018" t="s">
         <v>0</v>
@@ -52497,7 +52497,7 @@
         <v>6</v>
       </c>
       <c r="N1018" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="O1018" t="s">
         <v>11</v>
@@ -52505,7 +52505,7 @@
     </row>
     <row r="1019" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1019" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="B1019" t="s">
         <v>0</v>
@@ -52552,7 +52552,7 @@
     </row>
     <row r="1020" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1020" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="B1020" t="s">
         <v>0</v>
@@ -52599,7 +52599,7 @@
     </row>
     <row r="1021" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1021" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="B1021" t="s">
         <v>0</v>
@@ -52638,7 +52638,7 @@
         <v>6</v>
       </c>
       <c r="N1021" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="O1021" t="s">
         <v>8</v>
@@ -52646,7 +52646,7 @@
     </row>
     <row r="1022" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1022" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="B1022" t="s">
         <v>0</v>
@@ -52685,7 +52685,7 @@
         <v>6</v>
       </c>
       <c r="N1022" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="O1022" t="s">
         <v>11</v>
@@ -52693,7 +52693,7 @@
     </row>
     <row r="1023" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1023" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="B1023" t="s">
         <v>0</v>
@@ -52740,7 +52740,7 @@
     </row>
     <row r="1024" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1024" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="B1024" t="s">
         <v>0</v>
@@ -52784,7 +52784,7 @@
     </row>
     <row r="1025" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1025" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="B1025" t="s">
         <v>0</v>
@@ -52823,7 +52823,7 @@
         <v>6</v>
       </c>
       <c r="N1025" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="O1025" t="s">
         <v>11</v>
@@ -52831,7 +52831,7 @@
     </row>
     <row r="1026" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1026" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="B1026" t="s">
         <v>0</v>
@@ -52878,7 +52878,7 @@
     </row>
     <row r="1027" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1027" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="B1027" t="s">
         <v>0</v>
@@ -52917,7 +52917,7 @@
         <v>6</v>
       </c>
       <c r="N1027" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="O1027" t="s">
         <v>11</v>
@@ -52925,7 +52925,7 @@
     </row>
     <row r="1028" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1028" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="B1028" t="s">
         <v>0</v>
@@ -52964,7 +52964,7 @@
         <v>6</v>
       </c>
       <c r="N1028" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="O1028" t="s">
         <v>8</v>
@@ -52972,7 +52972,7 @@
     </row>
     <row r="1029" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1029" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="B1029" t="s">
         <v>0</v>
@@ -53019,7 +53019,7 @@
     </row>
     <row r="1030" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1030" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="B1030" t="s">
         <v>66</v>
@@ -53066,7 +53066,7 @@
     </row>
     <row r="1031" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1031" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="B1031" t="s">
         <v>0</v>
@@ -53105,7 +53105,7 @@
         <v>6</v>
       </c>
       <c r="N1031" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="O1031" t="s">
         <v>8</v>
@@ -53113,7 +53113,7 @@
     </row>
     <row r="1032" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1032" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="B1032" t="s">
         <v>0</v>
@@ -53152,7 +53152,7 @@
         <v>6</v>
       </c>
       <c r="N1032" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="O1032" t="s">
         <v>11</v>
@@ -53160,7 +53160,7 @@
     </row>
     <row r="1033" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1033" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="B1033" t="s">
         <v>0</v>
@@ -53199,7 +53199,7 @@
         <v>6</v>
       </c>
       <c r="N1033" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="O1033" t="s">
         <v>11</v>
@@ -53207,7 +53207,7 @@
     </row>
     <row r="1034" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1034" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="B1034" t="s">
         <v>0</v>
@@ -53254,7 +53254,7 @@
     </row>
     <row r="1035" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1035" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="B1035" t="s">
         <v>0</v>
@@ -53301,7 +53301,7 @@
     </row>
     <row r="1036" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1036" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="B1036" t="s">
         <v>0</v>
@@ -53348,7 +53348,7 @@
     </row>
     <row r="1037" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1037" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="B1037" t="s">
         <v>0</v>
@@ -53395,7 +53395,7 @@
     </row>
     <row r="1038" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1038" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="B1038" t="s">
         <v>0</v>
@@ -53434,7 +53434,7 @@
         <v>6</v>
       </c>
       <c r="N1038" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="O1038" t="s">
         <v>11</v>
@@ -53442,7 +53442,7 @@
     </row>
     <row r="1039" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1039" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="B1039" t="s">
         <v>0</v>
@@ -53481,7 +53481,7 @@
         <v>6</v>
       </c>
       <c r="N1039" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="O1039" t="s">
         <v>8</v>
@@ -53489,7 +53489,7 @@
     </row>
     <row r="1040" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1040" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="B1040" t="s">
         <v>0</v>
@@ -53528,7 +53528,7 @@
         <v>6</v>
       </c>
       <c r="N1040" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="O1040" t="s">
         <v>11</v>
@@ -53536,7 +53536,7 @@
     </row>
     <row r="1041" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1041" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="B1041" t="s">
         <v>0</v>
@@ -53575,7 +53575,7 @@
         <v>6</v>
       </c>
       <c r="N1041" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="O1041" t="s">
         <v>8</v>
@@ -53583,7 +53583,7 @@
     </row>
     <row r="1042" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1042" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="B1042" t="s">
         <v>0</v>
@@ -53622,7 +53622,7 @@
         <v>6</v>
       </c>
       <c r="N1042" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="O1042" t="s">
         <v>8</v>
@@ -53630,7 +53630,7 @@
     </row>
     <row r="1043" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1043" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="B1043" t="s">
         <v>66</v>
@@ -53677,7 +53677,7 @@
     </row>
     <row r="1044" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1044" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="B1044" t="s">
         <v>0</v>
@@ -53716,7 +53716,7 @@
         <v>6</v>
       </c>
       <c r="N1044" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="O1044" t="s">
         <v>11</v>
@@ -53724,7 +53724,7 @@
     </row>
     <row r="1045" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1045" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="B1045" t="s">
         <v>0</v>
@@ -53763,7 +53763,7 @@
         <v>6</v>
       </c>
       <c r="N1045" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="O1045" t="s">
         <v>8</v>
@@ -53771,7 +53771,7 @@
     </row>
     <row r="1046" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1046" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="B1046" t="s">
         <v>0</v>
@@ -53810,7 +53810,7 @@
         <v>6</v>
       </c>
       <c r="N1046" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="O1046" t="s">
         <v>11</v>
@@ -53818,7 +53818,7 @@
     </row>
     <row r="1047" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1047" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="B1047" t="s">
         <v>0</v>
@@ -53857,7 +53857,7 @@
         <v>6</v>
       </c>
       <c r="N1047" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="O1047" t="s">
         <v>8</v>
@@ -53865,7 +53865,7 @@
     </row>
     <row r="1048" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1048" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="B1048" t="s">
         <v>0</v>
@@ -53912,7 +53912,7 @@
     </row>
     <row r="1049" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1049" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="B1049" t="s">
         <v>0</v>
@@ -53951,7 +53951,7 @@
         <v>6</v>
       </c>
       <c r="N1049" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="O1049" t="s">
         <v>8</v>
@@ -53959,7 +53959,7 @@
     </row>
     <row r="1050" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1050" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="B1050" t="s">
         <v>0</v>
@@ -54006,7 +54006,7 @@
     </row>
     <row r="1051" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1051" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="B1051" t="s">
         <v>0</v>
@@ -54053,7 +54053,7 @@
     </row>
     <row r="1052" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1052" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="B1052" t="s">
         <v>0</v>
@@ -54100,7 +54100,7 @@
     </row>
     <row r="1053" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1053" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="B1053" t="s">
         <v>0</v>
@@ -54147,7 +54147,7 @@
     </row>
     <row r="1054" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1054" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="B1054" t="s">
         <v>0</v>
@@ -54194,7 +54194,7 @@
     </row>
     <row r="1055" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1055" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="B1055" t="s">
         <v>66</v>
@@ -54241,7 +54241,7 @@
     </row>
     <row r="1056" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1056" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="B1056" t="s">
         <v>0</v>
@@ -54288,7 +54288,7 @@
     </row>
     <row r="1057" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1057" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="B1057" t="s">
         <v>0</v>
@@ -54335,7 +54335,7 @@
     </row>
     <row r="1058" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1058" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="B1058" t="s">
         <v>0</v>
@@ -54382,7 +54382,7 @@
     </row>
     <row r="1059" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1059" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="B1059" t="s">
         <v>0</v>
@@ -54429,7 +54429,7 @@
     </row>
     <row r="1060" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1060" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="B1060" t="s">
         <v>0</v>
@@ -54476,7 +54476,7 @@
     </row>
     <row r="1061" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1061" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="B1061" t="s">
         <v>0</v>
@@ -54523,7 +54523,7 @@
     </row>
     <row r="1062" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1062" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="B1062" t="s">
         <v>0</v>
@@ -54570,7 +54570,7 @@
     </row>
     <row r="1063" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1063" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="B1063" t="s">
         <v>0</v>
@@ -54609,7 +54609,7 @@
         <v>6</v>
       </c>
       <c r="N1063" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="O1063" t="s">
         <v>8</v>
@@ -54617,7 +54617,7 @@
     </row>
     <row r="1064" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1064" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="B1064" t="s">
         <v>66</v>
@@ -54664,7 +54664,7 @@
     </row>
     <row r="1065" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1065" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="B1065" t="s">
         <v>0</v>
@@ -54711,7 +54711,7 @@
     </row>
     <row r="1066" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1066" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="B1066" t="s">
         <v>0</v>
@@ -54758,7 +54758,7 @@
     </row>
     <row r="1067" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1067" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="B1067" t="s">
         <v>0</v>
@@ -54805,7 +54805,7 @@
     </row>
     <row r="1068" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1068" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="B1068" t="s">
         <v>0</v>
@@ -54844,7 +54844,7 @@
         <v>6</v>
       </c>
       <c r="N1068" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="O1068" t="s">
         <v>8</v>
@@ -54852,7 +54852,7 @@
     </row>
     <row r="1069" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1069" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="B1069" t="s">
         <v>66</v>
@@ -54891,7 +54891,7 @@
         <v>6</v>
       </c>
       <c r="N1069" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="O1069" t="s">
         <v>8</v>
@@ -54899,7 +54899,7 @@
     </row>
     <row r="1070" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1070" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="B1070" t="s">
         <v>0</v>
@@ -54938,7 +54938,7 @@
         <v>6</v>
       </c>
       <c r="N1070" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="O1070" t="s">
         <v>11</v>
@@ -54946,7 +54946,7 @@
     </row>
     <row r="1071" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1071" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="B1071" t="s">
         <v>0</v>
@@ -54993,7 +54993,7 @@
     </row>
     <row r="1072" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1072" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="B1072" t="s">
         <v>0</v>
@@ -55032,7 +55032,7 @@
         <v>6</v>
       </c>
       <c r="N1072" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="O1072" t="s">
         <v>8</v>
@@ -55040,7 +55040,7 @@
     </row>
     <row r="1073" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1073" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="B1073" t="s">
         <v>0</v>
@@ -55087,7 +55087,7 @@
     </row>
     <row r="1074" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1074" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="B1074" t="s">
         <v>0</v>
@@ -55134,7 +55134,7 @@
     </row>
     <row r="1075" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1075" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="B1075" t="s">
         <v>66</v>
@@ -55181,7 +55181,7 @@
     </row>
     <row r="1076" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1076" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="B1076" t="s">
         <v>0</v>
@@ -55228,7 +55228,7 @@
     </row>
     <row r="1077" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1077" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="B1077" t="s">
         <v>0</v>
@@ -55275,7 +55275,7 @@
     </row>
     <row r="1078" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1078" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="B1078" t="s">
         <v>0</v>
@@ -55322,7 +55322,7 @@
     </row>
     <row r="1079" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1079" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="B1079" t="s">
         <v>0</v>
@@ -55361,7 +55361,7 @@
         <v>6</v>
       </c>
       <c r="N1079" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="O1079" t="s">
         <v>8</v>
@@ -55369,7 +55369,7 @@
     </row>
     <row r="1080" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1080" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="B1080" t="s">
         <v>0</v>
@@ -55408,7 +55408,7 @@
         <v>6</v>
       </c>
       <c r="N1080" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="O1080" t="s">
         <v>8</v>
@@ -55416,7 +55416,7 @@
     </row>
     <row r="1081" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1081" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="B1081" t="s">
         <v>0</v>
@@ -55463,7 +55463,7 @@
     </row>
     <row r="1082" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1082" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="B1082" t="s">
         <v>0</v>
@@ -55510,7 +55510,7 @@
     </row>
     <row r="1083" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1083" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="B1083" t="s">
         <v>0</v>
@@ -55549,7 +55549,7 @@
         <v>6</v>
       </c>
       <c r="N1083" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="O1083" t="s">
         <v>11</v>
@@ -55557,7 +55557,7 @@
     </row>
     <row r="1084" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1084" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="B1084" t="s">
         <v>0</v>
@@ -55596,7 +55596,7 @@
         <v>6</v>
       </c>
       <c r="N1084" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="O1084" t="s">
         <v>11</v>
@@ -55604,7 +55604,7 @@
     </row>
     <row r="1085" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1085" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="B1085" t="s">
         <v>0</v>
@@ -55643,7 +55643,7 @@
         <v>6</v>
       </c>
       <c r="N1085" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="O1085" t="s">
         <v>11</v>
@@ -55651,7 +55651,7 @@
     </row>
     <row r="1086" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1086" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="B1086" t="s">
         <v>0</v>
@@ -55690,7 +55690,7 @@
         <v>6</v>
       </c>
       <c r="N1086" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="O1086" t="s">
         <v>8</v>
@@ -55698,7 +55698,7 @@
     </row>
     <row r="1087" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1087" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="B1087" t="s">
         <v>0</v>
@@ -55745,7 +55745,7 @@
     </row>
     <row r="1088" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1088" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="B1088" t="s">
         <v>66</v>
@@ -55792,7 +55792,7 @@
     </row>
     <row r="1089" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1089" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="B1089" t="s">
         <v>0</v>
@@ -55831,7 +55831,7 @@
         <v>6</v>
       </c>
       <c r="N1089" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="O1089" t="s">
         <v>8</v>
@@ -55839,7 +55839,7 @@
     </row>
     <row r="1090" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1090" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="B1090" t="s">
         <v>66</v>
@@ -55878,7 +55878,7 @@
         <v>6</v>
       </c>
       <c r="N1090" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="O1090" t="s">
         <v>8</v>
@@ -55886,7 +55886,7 @@
     </row>
     <row r="1091" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1091" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="B1091" t="s">
         <v>0</v>
@@ -55925,7 +55925,7 @@
         <v>6</v>
       </c>
       <c r="N1091" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="O1091" t="s">
         <v>11</v>
@@ -55933,7 +55933,7 @@
     </row>
     <row r="1092" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1092" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="B1092" t="s">
         <v>0</v>
@@ -55980,7 +55980,7 @@
     </row>
     <row r="1093" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1093" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="B1093" t="s">
         <v>0</v>
@@ -56027,7 +56027,7 @@
     </row>
     <row r="1094" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1094" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="B1094" t="s">
         <v>0</v>
@@ -56074,7 +56074,7 @@
     </row>
     <row r="1095" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1095" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="B1095" t="s">
         <v>66</v>
@@ -56121,7 +56121,7 @@
     </row>
     <row r="1096" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1096" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="B1096" t="s">
         <v>0</v>
@@ -56160,7 +56160,7 @@
         <v>6</v>
       </c>
       <c r="N1096" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="O1096" t="s">
         <v>8</v>
@@ -56168,7 +56168,7 @@
     </row>
     <row r="1097" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1097" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="B1097" t="s">
         <v>0</v>
@@ -56207,7 +56207,7 @@
         <v>6</v>
       </c>
       <c r="N1097" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="O1097" t="s">
         <v>8</v>
@@ -56215,7 +56215,7 @@
     </row>
     <row r="1098" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1098" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="B1098" t="s">
         <v>0</v>
@@ -56262,7 +56262,7 @@
     </row>
     <row r="1099" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1099" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="B1099" t="s">
         <v>0</v>
@@ -56309,7 +56309,7 @@
     </row>
     <row r="1100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1100" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="B1100" t="s">
         <v>0</v>
@@ -56356,7 +56356,7 @@
     </row>
     <row r="1101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1101" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="B1101" t="s">
         <v>0</v>
@@ -56403,7 +56403,7 @@
     </row>
     <row r="1102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1102" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="B1102" t="s">
         <v>0</v>
@@ -56450,7 +56450,7 @@
     </row>
     <row r="1103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1103" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="B1103" t="s">
         <v>0</v>
@@ -56497,7 +56497,7 @@
     </row>
     <row r="1104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1104" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="B1104" t="s">
         <v>0</v>
@@ -56536,7 +56536,7 @@
         <v>6</v>
       </c>
       <c r="N1104" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="O1104" t="s">
         <v>11</v>
@@ -56544,7 +56544,7 @@
     </row>
     <row r="1105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1105" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="B1105" t="s">
         <v>0</v>
@@ -56591,7 +56591,7 @@
     </row>
     <row r="1106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1106" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="B1106" t="s">
         <v>0</v>
@@ -56638,7 +56638,7 @@
     </row>
     <row r="1107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1107" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="B1107" t="s">
         <v>66</v>
@@ -56685,7 +56685,7 @@
     </row>
     <row r="1108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1108" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="B1108" t="s">
         <v>0</v>
@@ -56724,7 +56724,7 @@
         <v>6</v>
       </c>
       <c r="N1108" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="O1108" t="s">
         <v>11</v>
@@ -56732,7 +56732,7 @@
     </row>
     <row r="1109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1109" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="B1109" t="s">
         <v>0</v>
@@ -56779,7 +56779,7 @@
     </row>
     <row r="1110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1110" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="B1110" t="s">
         <v>0</v>
@@ -56818,7 +56818,7 @@
         <v>6</v>
       </c>
       <c r="N1110" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="O1110" t="s">
         <v>11</v>
@@ -56826,7 +56826,7 @@
     </row>
     <row r="1111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1111" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="B1111" t="s">
         <v>0</v>
@@ -56865,7 +56865,7 @@
         <v>6</v>
       </c>
       <c r="N1111" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="O1111" t="s">
         <v>8</v>
@@ -56873,7 +56873,7 @@
     </row>
     <row r="1112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1112" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="B1112" t="s">
         <v>0</v>
@@ -56920,7 +56920,7 @@
     </row>
     <row r="1113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1113" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="B1113" t="s">
         <v>66</v>
@@ -56967,7 +56967,7 @@
     </row>
     <row r="1114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1114" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="B1114" t="s">
         <v>0</v>
@@ -57014,7 +57014,7 @@
     </row>
     <row r="1115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1115" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="B1115" t="s">
         <v>0</v>
@@ -57061,7 +57061,7 @@
     </row>
     <row r="1116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1116" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="B1116" t="s">
         <v>0</v>
@@ -57100,7 +57100,7 @@
         <v>6</v>
       </c>
       <c r="N1116" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="O1116" t="s">
         <v>11</v>
@@ -57108,7 +57108,7 @@
     </row>
     <row r="1117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1117" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="B1117" t="s">
         <v>0</v>
@@ -57155,7 +57155,7 @@
     </row>
     <row r="1118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1118" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="B1118" t="s">
         <v>0</v>
@@ -57194,7 +57194,7 @@
         <v>6</v>
       </c>
       <c r="N1118" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="O1118" t="s">
         <v>11</v>
@@ -57202,7 +57202,7 @@
     </row>
     <row r="1119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1119" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="B1119" t="s">
         <v>0</v>
@@ -57241,7 +57241,7 @@
         <v>6</v>
       </c>
       <c r="N1119" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="O1119" t="s">
         <v>11</v>
@@ -57249,7 +57249,7 @@
     </row>
     <row r="1120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1120" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="B1120" t="s">
         <v>0</v>
@@ -57296,7 +57296,7 @@
     </row>
     <row r="1121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1121" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="B1121" t="s">
         <v>0</v>
@@ -57343,7 +57343,7 @@
     </row>
     <row r="1122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1122" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="B1122" t="s">
         <v>0</v>
@@ -57382,7 +57382,7 @@
         <v>6</v>
       </c>
       <c r="N1122" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="O1122" t="s">
         <v>11</v>
@@ -57390,7 +57390,7 @@
     </row>
     <row r="1123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1123" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="B1123" t="s">
         <v>0</v>
@@ -57429,7 +57429,7 @@
         <v>6</v>
       </c>
       <c r="N1123" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="O1123" t="s">
         <v>11</v>
@@ -57437,7 +57437,7 @@
     </row>
     <row r="1124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1124" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="B1124" t="s">
         <v>0</v>
@@ -57484,7 +57484,7 @@
     </row>
     <row r="1125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1125" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="B1125" t="s">
         <v>0</v>
@@ -57531,7 +57531,7 @@
     </row>
     <row r="1126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1126" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="B1126" t="s">
         <v>0</v>
@@ -57578,7 +57578,7 @@
     </row>
     <row r="1127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1127" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="B1127" t="s">
         <v>0</v>
@@ -57617,7 +57617,7 @@
         <v>6</v>
       </c>
       <c r="N1127" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="O1127" t="s">
         <v>11</v>
@@ -57625,7 +57625,7 @@
     </row>
     <row r="1128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1128" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="B1128" t="s">
         <v>0</v>
@@ -57664,7 +57664,7 @@
         <v>6</v>
       </c>
       <c r="N1128" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="O1128" t="s">
         <v>8</v>
@@ -57672,7 +57672,7 @@
     </row>
     <row r="1129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1129" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="B1129" t="s">
         <v>0</v>
@@ -57719,7 +57719,7 @@
     </row>
     <row r="1130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1130" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="B1130" t="s">
         <v>0</v>
@@ -57766,7 +57766,7 @@
     </row>
     <row r="1131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1131" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="B1131" t="s">
         <v>66</v>
@@ -57813,7 +57813,7 @@
     </row>
     <row r="1132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1132" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="B1132" t="s">
         <v>0</v>
@@ -57852,7 +57852,7 @@
         <v>6</v>
       </c>
       <c r="N1132" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="O1132" t="s">
         <v>8</v>
@@ -57860,7 +57860,7 @@
     </row>
     <row r="1133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1133" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="B1133" t="s">
         <v>0</v>
@@ -57907,7 +57907,7 @@
     </row>
     <row r="1134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1134" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="B1134" t="s">
         <v>0</v>
@@ -57954,7 +57954,7 @@
     </row>
     <row r="1135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1135" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="B1135" t="s">
         <v>0</v>
@@ -57993,7 +57993,7 @@
         <v>6</v>
       </c>
       <c r="N1135" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="O1135" t="s">
         <v>8</v>
@@ -58001,7 +58001,7 @@
     </row>
     <row r="1136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1136" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="B1136" t="s">
         <v>0</v>
@@ -58048,7 +58048,7 @@
     </row>
     <row r="1137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1137" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="B1137" t="s">
         <v>0</v>
@@ -58087,7 +58087,7 @@
         <v>6</v>
       </c>
       <c r="N1137" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="O1137" t="s">
         <v>8</v>
@@ -58095,7 +58095,7 @@
     </row>
     <row r="1138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1138" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="B1138" t="s">
         <v>0</v>
@@ -58134,7 +58134,7 @@
         <v>6</v>
       </c>
       <c r="N1138" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="O1138" t="s">
         <v>8</v>
@@ -58142,7 +58142,7 @@
     </row>
     <row r="1139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1139" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="B1139" t="s">
         <v>0</v>
@@ -58181,7 +58181,7 @@
         <v>6</v>
       </c>
       <c r="N1139" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="O1139" t="s">
         <v>11</v>
@@ -58189,7 +58189,7 @@
     </row>
     <row r="1140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1140" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="B1140" t="s">
         <v>0</v>
@@ -58236,7 +58236,7 @@
     </row>
     <row r="1141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1141" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="B1141" t="s">
         <v>0</v>
@@ -58283,7 +58283,7 @@
     </row>
     <row r="1142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1142" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="B1142" t="s">
         <v>0</v>
@@ -58330,7 +58330,7 @@
     </row>
     <row r="1143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1143" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="B1143" t="s">
         <v>0</v>
@@ -58369,7 +58369,7 @@
         <v>6</v>
       </c>
       <c r="N1143" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="O1143" t="s">
         <v>11</v>
@@ -58377,7 +58377,7 @@
     </row>
     <row r="1144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1144" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="B1144" t="s">
         <v>0</v>
@@ -58424,7 +58424,7 @@
     </row>
     <row r="1145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1145" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="B1145" t="s">
         <v>0</v>
@@ -58471,7 +58471,7 @@
     </row>
     <row r="1146" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1146" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="B1146" t="s">
         <v>0</v>
@@ -58510,7 +58510,7 @@
         <v>6</v>
       </c>
       <c r="N1146" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="O1146" t="s">
         <v>11</v>
@@ -58518,7 +58518,7 @@
     </row>
     <row r="1147" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1147" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="B1147" t="s">
         <v>0</v>
@@ -58557,7 +58557,7 @@
         <v>6</v>
       </c>
       <c r="N1147" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="O1147" t="s">
         <v>8</v>
@@ -58565,7 +58565,7 @@
     </row>
     <row r="1148" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1148" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="B1148" t="s">
         <v>0</v>
@@ -58612,7 +58612,7 @@
     </row>
     <row r="1149" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1149" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="B1149" t="s">
         <v>0</v>
@@ -58659,7 +58659,7 @@
     </row>
     <row r="1150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1150" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="B1150" t="s">
         <v>0</v>
@@ -58706,7 +58706,7 @@
     </row>
     <row r="1151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1151" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="B1151" t="s">
         <v>66</v>
@@ -58753,7 +58753,7 @@
     </row>
     <row r="1152" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1152" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="B1152" t="s">
         <v>0</v>
